--- a/docs/Action_Item_Software_Defined_Radio.xlsx
+++ b/docs/Action_Item_Software_Defined_Radio.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D5640E-7AC5-4C96-8EA3-49EC84C873A5}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Open Action Items" sheetId="4" r:id="rId1"/>
     <sheet name="Closed Action Items" sheetId="3" r:id="rId2"/>
     <sheet name="Instructions and Lists" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +31,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hinkle, Lee B</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,12 +66,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Hinkle, Lee B</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -182,18 +181,12 @@
     <t>CLOSED:  Done on 9/14/2018.</t>
   </si>
   <si>
-    <t>Reviewing options for simulations</t>
-  </si>
-  <si>
     <t>Compiling list</t>
   </si>
   <si>
     <t xml:space="preserve">Understand the fundamentals of digital signal processing within the bounds of our design and project. </t>
   </si>
   <si>
-    <t xml:space="preserve">My goal is to be able to completely understand the data flow and processing for the desgin. </t>
-  </si>
-  <si>
     <t>Ordering Parts</t>
   </si>
   <si>
@@ -210,12 +203,30 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed for analog components we are biulding </t>
+  </si>
+  <si>
+    <t>My goal is to be able to completely understand the data flow and processing for the desgin. This will take longer then first thought</t>
+  </si>
+  <si>
+    <t>Labor Cost Schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a class deliverable </t>
+  </si>
+  <si>
+    <t>Updating simulations of analog components with most recent information from research</t>
+  </si>
+  <si>
+    <t>Working with Zackary to update simulations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -415,7 +426,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -455,7 +496,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B2D8D9-BEA9-4173-B84B-AD4339F3EBD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4B2D8D9-BEA9-4173-B84B-AD4339F3EBD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -804,38 +845,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="5">
-        <v>43390</v>
+        <v>43397</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -855,180 +896,159 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B4" s="19">
-        <v>43355</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>21</v>
+        <v>43397</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="20">
+        <v>43405</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F5" si="0">IF(ISERROR(DATEDIF($B$2,E4,"d")),"-",DATEDIF($B$2,E4,"d"))</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19">
+        <v>43397</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="20">
-        <v>43391</v>
-      </c>
-      <c r="F4" s="15">
-        <f>IF(ISERROR(DATEDIF($B$2,E4,"d")),"-",DATEDIF($B$2,E4,"d"))</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="E5" s="20">
+        <v>43422</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="B6" s="12">
+        <v>43383</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12">
+        <v>43426</v>
+      </c>
+      <c r="F6" s="15">
+        <f>IF(ISERROR(DATEDIF($B$2,E6,"d")),"-",DATEDIF($B$2,E6,"d"))</f>
+        <v>29</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
-        <v>43355</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="20">
-        <v>43395</v>
-      </c>
-      <c r="F5" s="15">
-        <f t="shared" ref="F5:F6" si="0">IF(ISERROR(DATEDIF($B$2,E5,"d")),"-",DATEDIF($B$2,E5,"d"))</f>
-        <v>5</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
-        <v>43355</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="20">
-        <v>43395</v>
-      </c>
-      <c r="F6" s="15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
-        <v>43383</v>
+        <v>43376</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="12">
-        <v>43395</v>
+        <v>43401</v>
       </c>
       <c r="F7" s="15">
         <f>IF(ISERROR(DATEDIF($B$2,E7,"d")),"-",DATEDIF($B$2,E7,"d"))</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
-        <v>43376</v>
-      </c>
-      <c r="C8" s="9" t="s">
+        <v>43383</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="12">
-        <v>43401</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="D8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="27">
+        <v>43395</v>
+      </c>
+      <c r="F8" s="15" t="str">
         <f>IF(ISERROR(DATEDIF($B$2,E8,"d")),"-",DATEDIF($B$2,E8,"d"))</f>
-        <v>11</v>
+        <v>-</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
-        <v>43383</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="27">
-        <v>43395</v>
-      </c>
-      <c r="F9" s="15">
-        <f>IF(ISERROR(DATEDIF($B$2,E9,"d")),"-",DATEDIF($B$2,E9,"d"))</f>
-        <v>5</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
-        <f>COUNTIF(D$4:D$10,C12)</f>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="14">
+        <f>COUNTIF(D$4:D$9,C11)</f>
         <v>3</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C11" t="str">
         <f>'Instructions and Lists'!$A$2</f>
         <v>James Bell</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
-        <f>COUNTIF(D$4:D$10,C13)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" t="str">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="14">
+        <f>COUNTIF(D$4:D$9,C12)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" t="str">
         <f>'Instructions and Lists'!$A$3</f>
         <v>Samual Hussey</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
-        <f>COUNTIF(D$4:D$10,C14)</f>
-        <v>2</v>
-      </c>
-      <c r="C14" t="str">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="14">
+        <f>COUNTIF(D$4:D$9,C13)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
         <f>'Instructions and Lists'!$A$4</f>
         <v>Zachary Schneiderman</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1037,11 +1057,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Instructions and Lists'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D4 D6:D9</xm:sqref>
+          <xm:sqref>D4:D8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1050,29 +1070,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>43353</v>
       </c>
@@ -1080,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>43343</v>
       </c>
@@ -1121,7 +1141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>43343</v>
       </c>
@@ -1142,7 +1162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>43343</v>
       </c>
@@ -1163,7 +1183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>43343</v>
       </c>
@@ -1171,7 +1191,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12">
         <v>43355</v>
@@ -1184,7 +1204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>43343</v>
       </c>
@@ -1205,7 +1225,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>43343</v>
       </c>
@@ -1226,7 +1246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>43343</v>
       </c>
@@ -1234,7 +1254,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="12">
         <v>43357</v>
@@ -1247,7 +1267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>43343</v>
       </c>
@@ -1268,50 +1288,145 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>43355</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="38">
+        <v>43391</v>
+      </c>
+      <c r="E12" s="31" t="str">
+        <f>IF(ISERROR(DATEDIF($B$2,D12,"d")),"-",DATEDIF($B$2,D12,"d"))</f>
+        <v>-</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>43355</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="20">
+        <v>43395</v>
+      </c>
+      <c r="E13" s="15" t="str">
+        <f t="shared" ref="E13:E14" si="2">IF(ISERROR(DATEDIF($B$2,D13,"d")),"-",DATEDIF($B$2,D13,"d"))</f>
+        <v>-</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>43355</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="20">
+        <v>43395</v>
+      </c>
+      <c r="E14" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="29"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <f>COUNTIF(C$4:C$11,B14)</f>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <f>COUNTIF(C$4:C$11,B21)</f>
         <v>3</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B21" t="str">
         <f>'Instructions and Lists'!$A$2</f>
         <v>James Bell</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <f>COUNTIF(C$4:C$11,B15)</f>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <f>COUNTIF(C$4:C$11,B22)</f>
         <v>2</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B22" t="str">
         <f>'Instructions and Lists'!$A$3</f>
         <v>Samual Hussey</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <f>COUNTIF(C$4:C$11,B16)</f>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <f>COUNTIF(C$4:C$11,B23)</f>
         <v>3</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B23" t="str">
         <f>'Instructions and Lists'!$A$4</f>
         <v>Zachary Schneiderman</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <f>COUNTIF(C$4:C$5,B17)</f>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
+        <f>COUNTIF(C$4:C$5,B24)</f>
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B24">
         <f>'Instructions and Lists'!$A$5</f>
         <v>0</v>
       </c>
@@ -1323,11 +1438,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Instructions and Lists'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C11</xm:sqref>
+          <xm:sqref>C4:C12 C14:C18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1336,34 +1451,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>

--- a/docs/Action_Item_Software_Defined_Radio.xlsx
+++ b/docs/Action_Item_Software_Defined_Radio.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samue\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634FC0D7-3D88-47E4-9366-96265512AE70}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open Action Items" sheetId="4" r:id="rId1"/>
     <sheet name="Closed Action Items" sheetId="3" r:id="rId2"/>
     <sheet name="Instructions and Lists" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +32,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hinkle, Lee B</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -66,12 +67,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Hinkle, Lee B</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -181,18 +182,12 @@
     <t>CLOSED:  Done on 9/14/2018.</t>
   </si>
   <si>
-    <t>Compiling list</t>
-  </si>
-  <si>
     <t xml:space="preserve">Understand the fundamentals of digital signal processing within the bounds of our design and project. </t>
   </si>
   <si>
     <t>Ordering Parts</t>
   </si>
   <si>
-    <t>Fill out and submit paperwork for ordering parts.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Working on RF Ampligier and Bandpass filter design as our simulations and test for the amplifier design did not meet our needs. </t>
   </si>
   <si>
@@ -202,12 +197,6 @@
     <t>Samual Hussey</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed for analog components we are biulding </t>
-  </si>
-  <si>
     <t>My goal is to be able to completely understand the data flow and processing for the desgin. This will take longer then first thought</t>
   </si>
   <si>
@@ -221,12 +210,27 @@
   </si>
   <si>
     <t>Working with Zackary to update simulations</t>
+  </si>
+  <si>
+    <t>Completed - Fill out and submit paperwork for ordering parts.</t>
+  </si>
+  <si>
+    <t>CLOSED:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOSED: Completed for analog components we are biulding </t>
+  </si>
+  <si>
+    <t>CLOSED: Compiling list</t>
+  </si>
+  <si>
+    <t>CLOSED: Completed - Fill out and submit paperwork for ordering parts.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,7 +500,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4B2D8D9-BEA9-4173-B84B-AD4339F3EBD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B2D8D9-BEA9-4173-B84B-AD4339F3EBD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -845,38 +849,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="B1" sqref="B1:G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:7" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="5">
-        <v>43397</v>
+        <v>43404</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -896,33 +900,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="19">
         <v>43397</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" s="20">
         <v>43405</v>
       </c>
       <c r="F4" s="15">
         <f t="shared" ref="F4:F5" si="0">IF(ISERROR(DATEDIF($B$2,E4,"d")),"-",DATEDIF($B$2,E4,"d"))</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="19">
         <v>43397</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>11</v>
@@ -932,18 +936,18 @@
       </c>
       <c r="F5" s="15">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="72" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>43383</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>11</v>
@@ -953,18 +957,18 @@
       </c>
       <c r="F6" s="15">
         <f>IF(ISERROR(DATEDIF($B$2,E6,"d")),"-",DATEDIF($B$2,E6,"d"))</f>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
         <v>43376</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>11</v>
@@ -972,20 +976,20 @@
       <c r="E7" s="12">
         <v>43401</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="15" t="str">
         <f>IF(ISERROR(DATEDIF($B$2,E7,"d")),"-",DATEDIF($B$2,E7,"d"))</f>
-        <v>4</v>
+        <v>-</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
         <v>43383</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>12</v>
@@ -998,10 +1002,10 @@
         <v>-</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="17"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
@@ -1009,7 +1013,7 @@
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -1017,7 +1021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f>COUNTIF(D$4:D$9,C11)</f>
         <v>3</v>
@@ -1027,7 +1031,7 @@
         <v>James Bell</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f>COUNTIF(D$4:D$9,C12)</f>
         <v>1</v>
@@ -1037,7 +1041,7 @@
         <v>Samual Hussey</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f>COUNTIF(D$4:D$9,C13)</f>
         <v>1</v>
@@ -1047,7 +1051,7 @@
         <v>Zachary Schneiderman</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
     </row>
   </sheetData>
@@ -1057,7 +1061,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>'Instructions and Lists'!$A$2:$A$5</xm:f>
           </x14:formula1>
@@ -1070,29 +1074,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>43353</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>43343</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43343</v>
       </c>
@@ -1162,7 +1166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>43343</v>
       </c>
@@ -1183,7 +1187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43343</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="12">
         <v>43355</v>
@@ -1204,7 +1208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43343</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43343</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43343</v>
       </c>
@@ -1254,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="12">
         <v>43357</v>
@@ -1267,7 +1271,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43343</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>43355</v>
       </c>
@@ -1306,10 +1310,10 @@
         <v>-</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>43355</v>
       </c>
@@ -1327,10 +1331,10 @@
         <v>-</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>43355</v>
       </c>
@@ -1348,18 +1352,31 @@
         <v>-</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="37"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>43376</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="12">
+        <v>43401</v>
+      </c>
+      <c r="E15" s="15" t="str">
+        <f>IF(ISERROR(DATEDIF($B$2,D15,"d")),"-",DATEDIF($B$2,D15,"d"))</f>
+        <v>-</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="33"/>
       <c r="C16" s="34"/>
@@ -1367,7 +1384,7 @@
       <c r="E16" s="36"/>
       <c r="F16" s="37"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="33"/>
       <c r="C17" s="34"/>
@@ -1375,7 +1392,7 @@
       <c r="E17" s="36"/>
       <c r="F17" s="37"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="33"/>
       <c r="C18" s="34"/>
@@ -1383,50 +1400,58 @@
       <c r="E18" s="36"/>
       <c r="F18" s="37"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="13">
-        <f>COUNTIF(C$4:C$11,B21)</f>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <f>COUNTIF(C$4:C$11,B22)</f>
         <v>3</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B22" t="str">
         <f>'Instructions and Lists'!$A$2</f>
         <v>James Bell</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
-        <f>COUNTIF(C$4:C$11,B22)</f>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <f>COUNTIF(C$4:C$11,B23)</f>
         <v>2</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B23" t="str">
         <f>'Instructions and Lists'!$A$3</f>
         <v>Samual Hussey</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="13">
-        <f>COUNTIF(C$4:C$11,B23)</f>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <f>COUNTIF(C$4:C$11,B24)</f>
         <v>3</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B24" t="str">
         <f>'Instructions and Lists'!$A$4</f>
         <v>Zachary Schneiderman</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="13">
-        <f>COUNTIF(C$4:C$5,B24)</f>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <f>COUNTIF(C$4:C$5,B25)</f>
         <v>0</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <f>'Instructions and Lists'!$A$5</f>
         <v>0</v>
       </c>
@@ -1438,11 +1463,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Instructions and Lists'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 C14:C18</xm:sqref>
+          <xm:sqref>C4:C12 C14:C19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1451,34 +1476,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>

--- a/docs/Action_Item_Software_Defined_Radio.xlsx
+++ b/docs/Action_Item_Software_Defined_Radio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634FC0D7-3D88-47E4-9366-96265512AE70}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945662AB-D49A-4487-A8D3-364F1129325F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open Action Items" sheetId="4" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -188,12 +188,6 @@
     <t>Ordering Parts</t>
   </si>
   <si>
-    <t xml:space="preserve">Working on RF Ampligier and Bandpass filter design as our simulations and test for the amplifier design did not meet our needs. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review/ redesign our bandpass filters and amplifer. </t>
-  </si>
-  <si>
     <t>Samual Hussey</t>
   </si>
   <si>
@@ -203,18 +197,9 @@
     <t>Labor Cost Schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a class deliverable </t>
-  </si>
-  <si>
     <t>Updating simulations of analog components with most recent information from research</t>
   </si>
   <si>
-    <t>Working with Zackary to update simulations</t>
-  </si>
-  <si>
-    <t>Completed - Fill out and submit paperwork for ordering parts.</t>
-  </si>
-  <si>
     <t>CLOSED:</t>
   </si>
   <si>
@@ -225,6 +210,12 @@
   </si>
   <si>
     <t>CLOSED: Completed - Fill out and submit paperwork for ordering parts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed - Bandpass filters and RF amplifer. </t>
+  </si>
+  <si>
+    <t>This is a class deliverable, more details on weekly schedule</t>
   </si>
 </sst>
 </file>
@@ -288,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -300,32 +291,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -354,11 +319,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -415,31 +379,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -457,11 +409,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G8"/>
+      <selection activeCell="B1" sqref="B1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,18 +824,18 @@
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="28.28515625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="5">
-        <v>43404</v>
+      <c r="B2" s="4">
+        <v>43411</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -890,169 +851,127 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>43397</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="19">
+        <v>43405</v>
+      </c>
+      <c r="F4" s="14" t="str">
+        <f t="shared" ref="F4:F5" si="0">IF(ISERROR(DATEDIF($B$2,E4,"d")),"-",DATEDIF($B$2,E4,"d"))</f>
+        <v>-</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="18">
+        <v>43397</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="20">
-        <v>43405</v>
-      </c>
-      <c r="F4" s="15">
-        <f t="shared" ref="F4:F5" si="0">IF(ISERROR(DATEDIF($B$2,E4,"d")),"-",DATEDIF($B$2,E4,"d"))</f>
-        <v>1</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
-        <v>43397</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>43422</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>43383</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>43426</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f>IF(ISERROR(DATEDIF($B$2,E6,"d")),"-",DATEDIF($B$2,E6,"d"))</f>
-        <v>22</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
-        <v>43376</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12">
-        <v>43401</v>
-      </c>
-      <c r="F7" s="15" t="str">
-        <f>IF(ISERROR(DATEDIF($B$2,E7,"d")),"-",DATEDIF($B$2,E7,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
-        <v>43383</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="27">
-        <v>43395</v>
-      </c>
-      <c r="F8" s="15" t="str">
-        <f>IF(ISERROR(DATEDIF($B$2,E8,"d")),"-",DATEDIF($B$2,E8,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="G8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="23" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
-        <f>COUNTIF(D$4:D$9,C11)</f>
-        <v>3</v>
-      </c>
-      <c r="C11" t="str">
+      <c r="B9" s="13">
+        <f>COUNTIF(D$4:D$7,C9)</f>
+        <v>2</v>
+      </c>
+      <c r="C9" t="str">
         <f>'Instructions and Lists'!$A$2</f>
         <v>James Bell</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
-        <f>COUNTIF(D$4:D$9,C12)</f>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <f>COUNTIF(D$4:D$7,C10)</f>
         <v>1</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C10" t="str">
         <f>'Instructions and Lists'!$A$3</f>
         <v>Samual Hussey</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
-        <f>COUNTIF(D$4:D$9,C13)</f>
-        <v>1</v>
-      </c>
-      <c r="C13" t="str">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <f>COUNTIF(D$4:D$7,C11)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
         <f>'Instructions and Lists'!$A$4</f>
         <v>Zachary Schneiderman</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1065,7 +984,7 @@
           <x14:formula1>
             <xm:f>'Instructions and Lists'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D8</xm:sqref>
+          <xm:sqref>D4:D6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1077,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,17 +1006,17 @@
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>43353</v>
       </c>
       <c r="B2" t="s">
@@ -1114,299 +1033,299 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>43343</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>43344</v>
       </c>
-      <c r="E4" s="11" t="str">
+      <c r="E4" s="10" t="str">
         <f t="shared" ref="E4:E5" si="0">IF(ISERROR(DATEDIF($A$2,D4,"d")),"-",DATEDIF($A$2,D4,"d"))</f>
         <v>-</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>43343</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>43353</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>43343</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>43355</v>
       </c>
-      <c r="E6" s="15" t="str">
+      <c r="E6" s="14" t="str">
         <f t="shared" ref="E6:E7" si="1">IF(ISERROR(DATEDIF($B$2,D6,"d")),"-",DATEDIF($B$2,D6,"d"))</f>
         <v>-</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>43343</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11">
         <v>43355</v>
       </c>
-      <c r="E7" s="15" t="str">
+      <c r="E7" s="14" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>43343</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>43355</v>
       </c>
-      <c r="E8" s="15" t="str">
+      <c r="E8" s="14" t="str">
         <f>IF(ISERROR(DATEDIF($B$2,D8,"d")),"-",DATEDIF($B$2,D8,"d"))</f>
         <v>-</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>43343</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>43357</v>
       </c>
-      <c r="E9" s="15" t="str">
+      <c r="E9" s="14" t="str">
         <f>IF(ISERROR(DATEDIF($B$2,D9,"d")),"-",DATEDIF($B$2,D9,"d"))</f>
         <v>-</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>43343</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="11">
         <v>43357</v>
       </c>
-      <c r="E10" s="15" t="str">
+      <c r="E10" s="14" t="str">
         <f>IF(ISERROR(DATEDIF($B$2,D10,"d")),"-",DATEDIF($B$2,D10,"d"))</f>
         <v>-</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>43343</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>43357</v>
       </c>
-      <c r="E11" s="15" t="str">
+      <c r="E11" s="14" t="str">
         <f>IF(ISERROR(DATEDIF($B$2,D11,"d")),"-",DATEDIF($B$2,D11,"d"))</f>
         <v>-</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>43355</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="33">
         <v>43391</v>
       </c>
-      <c r="E12" s="31" t="str">
+      <c r="E12" s="26" t="str">
         <f>IF(ISERROR(DATEDIF($B$2,D12,"d")),"-",DATEDIF($B$2,D12,"d"))</f>
         <v>-</v>
       </c>
-      <c r="F12" s="32" t="s">
-        <v>37</v>
+      <c r="F12" s="27" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="18">
         <v>43355</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="19">
         <v>43395</v>
       </c>
-      <c r="E13" s="15" t="str">
+      <c r="E13" s="14" t="str">
         <f t="shared" ref="E13:E14" si="2">IF(ISERROR(DATEDIF($B$2,D13,"d")),"-",DATEDIF($B$2,D13,"d"))</f>
         <v>-</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>38</v>
+      <c r="F13" s="20" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>43355</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="19">
         <v>43395</v>
       </c>
-      <c r="E14" s="15" t="str">
+      <c r="E14" s="14" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>39</v>
+      <c r="F14" s="20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>43376</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>43401</v>
       </c>
-      <c r="E15" s="15" t="str">
+      <c r="E15" s="14" t="str">
         <f>IF(ISERROR(DATEDIF($B$2,D15,"d")),"-",DATEDIF($B$2,D15,"d"))</f>
         <v>-</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>40</v>
+      <c r="F15" s="23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="37"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1417,7 +1336,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <f>COUNTIF(C$4:C$11,B22)</f>
         <v>3</v>
       </c>
@@ -1427,7 +1346,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
+      <c r="A23" s="12">
         <f>COUNTIF(C$4:C$11,B23)</f>
         <v>2</v>
       </c>
@@ -1437,7 +1356,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+      <c r="A24" s="12">
         <f>COUNTIF(C$4:C$11,B24)</f>
         <v>3</v>
       </c>
@@ -1447,7 +1366,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+      <c r="A25" s="12">
         <f>COUNTIF(C$4:C$5,B25)</f>
         <v>0</v>
       </c>
@@ -1500,7 +1419,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/docs/Action_Item_Software_Defined_Radio.xlsx
+++ b/docs/Action_Item_Software_Defined_Radio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945662AB-D49A-4487-A8D3-364F1129325F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8BF581-8463-4315-8F37-723233464ABB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open Action Items" sheetId="4" r:id="rId1"/>
@@ -21,11 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -102,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -216,6 +211,12 @@
   </si>
   <si>
     <t>This is a class deliverable, more details on weekly schedule</t>
+  </si>
+  <si>
+    <t>Asemble components in to system</t>
+  </si>
+  <si>
+    <t>Everyone on the team is working on this, as many parts of this huge task can run in parallel</t>
   </si>
 </sst>
 </file>
@@ -811,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G6"/>
+      <selection activeCell="B1" sqref="B1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +836,7 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
-        <v>43411</v>
+        <v>43418</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -866,20 +867,20 @@
         <v>43397</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="19">
-        <v>43405</v>
-      </c>
-      <c r="F4" s="14" t="str">
-        <f t="shared" ref="F4:F5" si="0">IF(ISERROR(DATEDIF($B$2,E4,"d")),"-",DATEDIF($B$2,E4,"d"))</f>
-        <v>-</v>
+        <v>43422</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F8" si="0">IF(ISERROR(DATEDIF($B$2,E4,"d")),"-",DATEDIF($B$2,E4,"d"))</f>
+        <v>4</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -897,81 +898,123 @@
       </c>
       <c r="F5" s="14">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
+    <row r="6" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>43397</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19">
+        <v>43422</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>43418</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="19">
+        <v>43439</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
         <v>43383</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E8" s="11">
         <v>43426</v>
       </c>
-      <c r="F6" s="14">
-        <f>IF(ISERROR(DATEDIF($B$2,E6,"d")),"-",DATEDIF($B$2,E6,"d"))</f>
-        <v>15</v>
-      </c>
-      <c r="G6" s="23" t="s">
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
-        <f>COUNTIF(D$4:D$7,C9)</f>
-        <v>2</v>
-      </c>
-      <c r="C9" t="str">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <f>COUNTIF(D$5:D$9,C11)</f>
+        <v>3</v>
+      </c>
+      <c r="C11" t="str">
         <f>'Instructions and Lists'!$A$2</f>
         <v>James Bell</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
-        <f>COUNTIF(D$4:D$7,C10)</f>
-        <v>1</v>
-      </c>
-      <c r="C10" t="str">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <f>COUNTIF(D$5:D$9,C12)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" t="str">
         <f>'Instructions and Lists'!$A$3</f>
         <v>Samual Hussey</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
-        <f>COUNTIF(D$4:D$7,C11)</f>
-        <v>0</v>
-      </c>
-      <c r="C11" t="str">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <f>COUNTIF(D$5:D$9,C13)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
         <f>'Instructions and Lists'!$A$4</f>
         <v>Zachary Schneiderman</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,7 +1027,7 @@
           <x14:formula1>
             <xm:f>'Instructions and Lists'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D6</xm:sqref>
+          <xm:sqref>D4:D8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -996,13 +1039,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
@@ -1017,7 +1060,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>43353</v>
+        <v>43418</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1077,9 +1120,9 @@
       <c r="D5" s="7">
         <v>43353</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>17</v>
@@ -1295,13 +1338,26 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="32"/>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>43397</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="19">
+        <v>43405</v>
+      </c>
+      <c r="E16" s="14" t="str">
+        <f t="shared" ref="E16" si="3">IF(ISERROR(DATEDIF($B$2,D16,"d")),"-",DATEDIF($B$2,D16,"d"))</f>
+        <v>-</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>

--- a/docs/Action_Item_Software_Defined_Radio.xlsx
+++ b/docs/Action_Item_Software_Defined_Radio.xlsx
@@ -8,19 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8BF581-8463-4315-8F37-723233464ABB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC3AF5-67A3-44B9-9610-1D15AB4E5CFE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open Action Items" sheetId="4" r:id="rId1"/>
     <sheet name="Closed Action Items" sheetId="3" r:id="rId2"/>
     <sheet name="Instructions and Lists" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -97,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -177,18 +182,12 @@
     <t>CLOSED:  Done on 9/14/2018.</t>
   </si>
   <si>
-    <t xml:space="preserve">Understand the fundamentals of digital signal processing within the bounds of our design and project. </t>
-  </si>
-  <si>
     <t>Ordering Parts</t>
   </si>
   <si>
     <t>Samual Hussey</t>
   </si>
   <si>
-    <t>My goal is to be able to completely understand the data flow and processing for the desgin. This will take longer then first thought</t>
-  </si>
-  <si>
     <t>Labor Cost Schedule</t>
   </si>
   <si>
@@ -213,10 +212,31 @@
     <t>This is a class deliverable, more details on weekly schedule</t>
   </si>
   <si>
-    <t>Asemble components in to system</t>
-  </si>
-  <si>
     <t>Everyone on the team is working on this, as many parts of this huge task can run in parallel</t>
+  </si>
+  <si>
+    <t>Completed -This is a class deliverable, more details on weekly schedule</t>
+  </si>
+  <si>
+    <t>Asemble components in to demonstration prototype system</t>
+  </si>
+  <si>
+    <t>Senior design poster</t>
+  </si>
+  <si>
+    <t>Individual Report</t>
+  </si>
+  <si>
+    <t>Required for the course</t>
+  </si>
+  <si>
+    <t>Test plan portion</t>
+  </si>
+  <si>
+    <t>More details on weekly project schedule</t>
+  </si>
+  <si>
+    <t>Senior design notebook</t>
   </si>
 </sst>
 </file>
@@ -320,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -383,9 +403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -393,21 +410,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -429,7 +431,64 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -812,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G8"/>
+      <selection activeCell="B1" sqref="B1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +895,7 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
-        <v>43418</v>
+        <v>43432</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -866,18 +925,18 @@
       <c r="B4" s="18">
         <v>43397</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>30</v>
+      <c r="C4" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="19">
         <v>43422</v>
       </c>
-      <c r="F4" s="14">
-        <f t="shared" ref="F4:F8" si="0">IF(ISERROR(DATEDIF($B$2,E4,"d")),"-",DATEDIF($B$2,E4,"d"))</f>
-        <v>4</v>
+      <c r="F4" s="14" t="str">
+        <f t="shared" ref="F4:F13" si="0">IF(ISERROR(DATEDIF($B$2,E4,"d")),"-",DATEDIF($B$2,E4,"d"))</f>
+        <v>-</v>
       </c>
       <c r="G4" s="20" t="s">
         <v>37</v>
@@ -887,8 +946,8 @@
       <c r="B5" s="18">
         <v>43397</v>
       </c>
-      <c r="C5" s="35" t="s">
-        <v>30</v>
+      <c r="C5" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>11</v>
@@ -896,9 +955,9 @@
       <c r="E5" s="19">
         <v>43422</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-</v>
       </c>
       <c r="G5" s="20" t="s">
         <v>37</v>
@@ -908,8 +967,8 @@
       <c r="B6" s="18">
         <v>43397</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>30</v>
+      <c r="C6" s="29" t="s">
+        <v>28</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>12</v>
@@ -917,9 +976,9 @@
       <c r="E6" s="19">
         <v>43422</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>-</v>
       </c>
       <c r="G6" s="20" t="s">
         <v>37</v>
@@ -929,7 +988,7 @@
       <c r="B7" s="18">
         <v>43418</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="29" t="s">
         <v>38</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -940,81 +999,209 @@
       </c>
       <c r="F7" s="14">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="G7" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>43409</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
-        <v>43383</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11">
-        <v>43426</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="19">
+        <v>43434</v>
       </c>
       <c r="F8" s="14">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>43411</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="19">
+        <v>43441</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>43423</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="19">
+        <v>43434</v>
+      </c>
+      <c r="F10" s="14"/>
+      <c r="G10" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>43423</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="19">
+        <v>43434</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
+        <v>43423</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="19">
+        <v>43434</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
+        <v>43423</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="19">
+        <v>43437</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18">
+        <v>43423</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="19">
+        <v>43437</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="18">
+        <v>43423</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="19">
+        <v>43437</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="13">
-        <f>COUNTIF(D$5:D$9,C11)</f>
-        <v>3</v>
-      </c>
-      <c r="C11" t="str">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="13">
+        <f>COUNTIF(D$5:D$16,C18)</f>
+        <v>5</v>
+      </c>
+      <c r="C18" t="str">
         <f>'Instructions and Lists'!$A$2</f>
         <v>James Bell</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
-        <f>COUNTIF(D$5:D$9,C12)</f>
-        <v>0</v>
-      </c>
-      <c r="C12" t="str">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="13">
+        <f>COUNTIF(D$5:D$16,C19)</f>
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
         <f>'Instructions and Lists'!$A$3</f>
         <v>Samual Hussey</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
-        <f>COUNTIF(D$5:D$9,C13)</f>
-        <v>1</v>
-      </c>
-      <c r="C13" t="str">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="13">
+        <f>COUNTIF(D$5:D$16,C20)</f>
+        <v>4</v>
+      </c>
+      <c r="C20" t="str">
         <f>'Instructions and Lists'!$A$4</f>
         <v>Zachary Schneiderman</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1027,7 +1214,7 @@
           <x14:formula1>
             <xm:f>'Instructions and Lists'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D8</xm:sqref>
+          <xm:sqref>D4:D15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1040,7 +1227,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1237,7 @@
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
@@ -1082,7 +1269,7 @@
       <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="31" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1157,7 +1344,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11">
         <v>43355</v>
@@ -1220,7 +1407,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="11">
         <v>43357</v>
@@ -1258,21 +1445,21 @@
       <c r="A12" s="18">
         <v>43355</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="27">
         <v>43391</v>
       </c>
-      <c r="E12" s="26" t="str">
+      <c r="E12" s="25" t="str">
         <f>IF(ISERROR(DATEDIF($B$2,D12,"d")),"-",DATEDIF($B$2,D12,"d"))</f>
         <v>-</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>32</v>
+      <c r="F12" s="26" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1282,7 +1469,7 @@
       <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="19">
@@ -1293,7 +1480,7 @@
         <v>-</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1314,7 +1501,7 @@
         <v>-</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1322,7 +1509,7 @@
         <v>43376</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>11</v>
@@ -1335,53 +1522,92 @@
         <v>-</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>43397</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>31</v>
+      <c r="B16" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="19">
         <v>43405</v>
       </c>
       <c r="E16" s="14" t="str">
-        <f t="shared" ref="E16" si="3">IF(ISERROR(DATEDIF($B$2,D16,"d")),"-",DATEDIF($B$2,D16,"d"))</f>
+        <f t="shared" ref="E16:E19" si="3">IF(ISERROR(DATEDIF($B$2,D16,"d")),"-",DATEDIF($B$2,D16,"d"))</f>
         <v>-</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>43397</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="19">
+        <v>43422</v>
+      </c>
+      <c r="E17" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>43397</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="19">
+        <v>43422</v>
+      </c>
+      <c r="E18" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>43397</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="19">
+        <v>43422</v>
+      </c>
+      <c r="E19" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1475,7 +1701,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">

--- a/docs/Action_Item_Software_Defined_Radio.xlsx
+++ b/docs/Action_Item_Software_Defined_Radio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BC3AF5-67A3-44B9-9610-1D15AB4E5CFE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAF159F-9AC2-4CFD-B3C3-77265D923008}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open Action Items" sheetId="4" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -227,16 +227,19 @@
     <t>Individual Report</t>
   </si>
   <si>
-    <t>Required for the course</t>
-  </si>
-  <si>
     <t>Test plan portion</t>
   </si>
   <si>
-    <t>More details on weekly project schedule</t>
-  </si>
-  <si>
     <t>Senior design notebook</t>
+  </si>
+  <si>
+    <t>Completed - More details on weekly project schedule</t>
+  </si>
+  <si>
+    <t>Completed - Required for the course</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -431,64 +434,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -871,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G21"/>
+  <dimension ref="B1:G15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G15"/>
+      <selection activeCell="B1" sqref="B1:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +841,7 @@
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
-        <v>43432</v>
+        <v>43439</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -921,287 +867,174 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="18">
-        <v>43397</v>
+        <v>43418</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E4" s="19">
-        <v>43422</v>
-      </c>
-      <c r="F4" s="14" t="str">
-        <f t="shared" ref="F4:F13" si="0">IF(ISERROR(DATEDIF($B$2,E4,"d")),"-",DATEDIF($B$2,E4,"d"))</f>
-        <v>-</v>
+        <v>43439</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F7" si="0">IF(ISERROR(DATEDIF($B$2,E4,"d")),"-",DATEDIF($B$2,E4,"d"))</f>
+        <v>0</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
-        <v>43397</v>
+        <v>43409</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="19">
-        <v>43422</v>
+        <v>43434</v>
       </c>
       <c r="F5" s="14" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
-        <v>43397</v>
+        <v>43411</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="19">
-        <v>43422</v>
-      </c>
-      <c r="F6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
-        <v>43418</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="19">
-        <v>43439</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>43409</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="19">
-        <v>43434</v>
-      </c>
-      <c r="F8" s="14">
+        <v>43441</v>
+      </c>
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>43423</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="19">
+        <v>43437</v>
+      </c>
+      <c r="F7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>43423</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="19">
+        <v>43437</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="18">
-        <v>43411</v>
+        <v>43423</v>
       </c>
       <c r="C9" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="19">
+        <v>43437</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="19">
-        <v>43441</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
-        <v>43423</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="19">
-        <v>43434</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
-        <v>43423</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="19">
-        <v>43434</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
-        <v>43423</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="19">
-        <v>43434</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18">
-        <v>43423</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="19">
-        <v>43437</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="18">
-        <v>43423</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="19">
-        <v>43437</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="18">
-        <v>43423</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="19">
-        <v>43437</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
-        <f>COUNTIF(D$5:D$16,C18)</f>
-        <v>5</v>
-      </c>
-      <c r="C18" t="str">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <f>COUNTIF(D$4:D$10,C12)</f>
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
         <f>'Instructions and Lists'!$A$2</f>
         <v>James Bell</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="13">
-        <f>COUNTIF(D$5:D$16,C19)</f>
-        <v>2</v>
-      </c>
-      <c r="C19" t="str">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <f>COUNTIF(D$4:D$10,C13)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" t="str">
         <f>'Instructions and Lists'!$A$3</f>
         <v>Samual Hussey</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
-        <f>COUNTIF(D$5:D$16,C20)</f>
-        <v>4</v>
-      </c>
-      <c r="C20" t="str">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <f>COUNTIF(D$4:D$10,C14)</f>
+        <v>2</v>
+      </c>
+      <c r="C14" t="str">
         <f>'Instructions and Lists'!$A$4</f>
         <v>Zachary Schneiderman</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1214,7 +1047,7 @@
           <x14:formula1>
             <xm:f>'Instructions and Lists'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D15</xm:sqref>
+          <xm:sqref>D4:D9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1224,10 +1057,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,7 +1372,7 @@
         <v>43405</v>
       </c>
       <c r="E16" s="14" t="str">
-        <f t="shared" ref="E16:E19" si="3">IF(ISERROR(DATEDIF($B$2,D16,"d")),"-",DATEDIF($B$2,D16,"d"))</f>
+        <f t="shared" ref="E16:E22" si="3">IF(ISERROR(DATEDIF($B$2,D16,"d")),"-",DATEDIF($B$2,D16,"d"))</f>
         <v>-</v>
       </c>
       <c r="F16" s="20" t="s">
@@ -1609,50 +1442,167 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>43397</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="19">
+        <v>43422</v>
+      </c>
+      <c r="E20" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>43397</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="19">
+        <v>43422</v>
+      </c>
+      <c r="E21" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>43397</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="19">
+        <v>43422</v>
+      </c>
+      <c r="E22" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>-</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>43423</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="19">
+        <v>43434</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>43423</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="19">
+        <v>43434</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>43423</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="19">
+        <v>43434</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <f>COUNTIF(C$4:C$11,B22)</f>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <f>COUNTIF(C$4:C$11,B28)</f>
         <v>3</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B28" t="str">
         <f>'Instructions and Lists'!$A$2</f>
         <v>James Bell</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <f>COUNTIF(C$4:C$11,B23)</f>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <f>COUNTIF(C$4:C$11,B29)</f>
         <v>2</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B29" t="str">
         <f>'Instructions and Lists'!$A$3</f>
         <v>Samual Hussey</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <f>COUNTIF(C$4:C$11,B24)</f>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <f>COUNTIF(C$4:C$11,B30)</f>
         <v>3</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B30" t="str">
         <f>'Instructions and Lists'!$A$4</f>
         <v>Zachary Schneiderman</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <f>COUNTIF(C$4:C$5,B25)</f>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <f>COUNTIF(C$4:C$5,B31)</f>
         <v>0</v>
       </c>
-      <c r="B25">
+      <c r="B31">
         <f>'Instructions and Lists'!$A$5</f>
         <v>0</v>
       </c>
@@ -1668,7 +1618,7 @@
           <x14:formula1>
             <xm:f>'Instructions and Lists'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 C14:C19</xm:sqref>
+          <xm:sqref>C4:C12 C14:C25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Action_Item_Software_Defined_Radio.xlsx
+++ b/docs/Action_Item_Software_Defined_Radio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsb131\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zas18\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAF159F-9AC2-4CFD-B3C3-77265D923008}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD346FF-01CD-4DDA-B310-41D016C79742}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -212,15 +213,9 @@
     <t>This is a class deliverable, more details on weekly schedule</t>
   </si>
   <si>
-    <t>Everyone on the team is working on this, as many parts of this huge task can run in parallel</t>
-  </si>
-  <si>
     <t>Completed -This is a class deliverable, more details on weekly schedule</t>
   </si>
   <si>
-    <t>Asemble components in to demonstration prototype system</t>
-  </si>
-  <si>
     <t>Senior design poster</t>
   </si>
   <si>
@@ -240,13 +235,64 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Combine audio transformer and low pass filter</t>
+  </si>
+  <si>
+    <t>Completed - simple soldering</t>
+  </si>
+  <si>
+    <t>RF splitter and combiner</t>
+  </si>
+  <si>
+    <t>It is a doubled wrapped torroid</t>
+  </si>
+  <si>
+    <t>Bandpass filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixer Circuit </t>
+  </si>
+  <si>
+    <t>This is the implementation of the clock generator to the mixers</t>
+  </si>
+  <si>
+    <t>Testing and benchmarking circuits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This task is verifying our project is meeting our goals in a more formalized task. </t>
+  </si>
+  <si>
+    <t>Implement RF Receive Code</t>
+  </si>
+  <si>
+    <t>This will be the completion of and testing of the Receving end of the radio</t>
+  </si>
+  <si>
+    <t>Speaker Circuit (Audio sheild -&gt; Speaker)</t>
+  </si>
+  <si>
+    <t>LCD for Teensy</t>
+  </si>
+  <si>
+    <t>Making a nice display for the current frequency</t>
+  </si>
+  <si>
+    <t>Making it be able to actually output audio</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>This is the selection mechanism for the frequency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +326,12 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -343,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -430,11 +482,242 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -817,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G15"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G9"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,24 +1113,23 @@
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="28.28515625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
-        <v>43439</v>
+        <v>43500</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -860,183 +1142,344 @@
       <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="18">
-        <v>43418</v>
+        <v>43493</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="19">
-        <v>43439</v>
-      </c>
-      <c r="F4" s="14">
-        <f t="shared" ref="F4:F7" si="0">IF(ISERROR(DATEDIF($B$2,E4,"d")),"-",DATEDIF($B$2,E4,"d"))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>43500</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
-        <v>43409</v>
+        <v>43493</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="19">
+        <v>43502</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
+        <v>43493</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="19">
+        <v>43509</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="18">
+        <v>43500</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="19">
-        <v>43434</v>
-      </c>
-      <c r="F5" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
-        <v>43411</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="E7" s="19">
+        <v>43516</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
+        <v>43493</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="19">
+        <v>43544</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>43493</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="19">
-        <v>43441</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
-        <v>43423</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E9" s="19">
+        <v>43516</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>43500</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="19">
-        <v>43437</v>
-      </c>
-      <c r="F7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>43423</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="E10" s="19">
+        <v>43516</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>43500</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="19">
-        <v>43437</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
-        <v>43423</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E11" s="19">
+        <v>43516</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
+        <v>43500</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="19">
-        <v>43437</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="E12" s="19">
+        <v>43516</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
-        <f>COUNTIF(D$4:D$10,C12)</f>
-        <v>3</v>
-      </c>
-      <c r="C12" t="str">
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="13">
+        <f>COUNTIF(D$4:D$13,C15)</f>
+        <v>4</v>
+      </c>
+      <c r="C15" t="str">
         <f>'Instructions and Lists'!$A$2</f>
         <v>James Bell</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="13">
-        <f>COUNTIF(D$4:D$10,C13)</f>
-        <v>1</v>
-      </c>
-      <c r="C13" t="str">
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="13">
+        <f>COUNTIF(D$4:D$13,C16)</f>
+        <v>2</v>
+      </c>
+      <c r="C16" t="str">
         <f>'Instructions and Lists'!$A$3</f>
         <v>Samual Hussey</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
-        <f>COUNTIF(D$4:D$10,C14)</f>
-        <v>2</v>
-      </c>
-      <c r="C14" t="str">
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" s="21"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="13">
+        <f>COUNTIF(D$4:D$13,C17)</f>
+        <v>3</v>
+      </c>
+      <c r="C17" t="str">
         <f>'Instructions and Lists'!$A$4</f>
         <v>Zachary Schneiderman</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="29" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="29" priority="30" operator="endsWith" text="Not Started">
+      <formula>RIGHT(C9,LEN("Not Started"))="Not Started"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="28" priority="31" stopIfTrue="1" operator="endsWith" text="In progress">
+      <formula>RIGHT(C9,LEN("In progress"))="In progress"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="27" priority="32" operator="endsWith" text="Finished">
+      <formula>RIGHT(C9,LEN("Finished"))="Finished"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="26" priority="26" operator="containsText" text="Overdue">
+      <formula>NOT(ISERROR(SEARCH("Overdue",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>$G9="In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="21" priority="22" operator="endsWith" text="Not Started">
+      <formula>RIGHT(C10,LEN("Not Started"))="Not Started"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="20" priority="23" stopIfTrue="1" operator="endsWith" text="In progress">
+      <formula>RIGHT(C10,LEN("In progress"))="In progress"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="19" priority="24" operator="endsWith" text="Finished">
+      <formula>RIGHT(C10,LEN("Finished"))="Finished"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="Overdue">
+      <formula>NOT(ISERROR(SEARCH("Overdue",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>$G10="In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="13" priority="14" operator="endsWith" text="Not Started">
+      <formula>RIGHT(C11,LEN("Not Started"))="Not Started"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="12" priority="15" stopIfTrue="1" operator="endsWith" text="In progress">
+      <formula>RIGHT(C11,LEN("In progress"))="In progress"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="11" priority="16" operator="endsWith" text="Finished">
+      <formula>RIGHT(C11,LEN("Finished"))="Finished"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Overdue">
+      <formula>NOT(ISERROR(SEARCH("Overdue",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$G11="In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
+      <formula>43466</formula>
+      <formula>43831</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+      <formula>43343</formula>
+      <formula>43466</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="5" priority="6" operator="endsWith" text="Not Started">
+      <formula>RIGHT(C12,LEN("Not Started"))="Not Started"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="4" priority="7" stopIfTrue="1" operator="endsWith" text="In progress">
+      <formula>RIGHT(C12,LEN("In progress"))="In progress"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="3" priority="8" operator="endsWith" text="Finished">
+      <formula>RIGHT(C12,LEN("Finished"))="Finished"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Overdue">
+      <formula>NOT(ISERROR(SEARCH("Overdue",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G12="In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1047,7 +1490,7 @@
           <x14:formula1>
             <xm:f>'Instructions and Lists'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D9</xm:sqref>
+          <xm:sqref>D4:D12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1057,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,7 +1903,7 @@
         <v>-</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1481,7 +1924,7 @@
         <v>-</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1502,7 +1945,7 @@
         <v>-</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1510,7 +1953,7 @@
         <v>43423</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>27</v>
@@ -1520,7 +1963,7 @@
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1528,7 +1971,7 @@
         <v>43423</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>11</v>
@@ -1538,7 +1981,7 @@
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1546,7 +1989,7 @@
         <v>43423</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" s="9" t="s">
         <v>12</v>
@@ -1556,53 +1999,152 @@
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>43409</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="19">
+        <v>43434</v>
+      </c>
+      <c r="E26" s="14" t="str">
+        <f t="shared" ref="E26:E29" si="4">IF(ISERROR(DATEDIF($B$2,D26,"d")),"-",DATEDIF($B$2,D26,"d"))</f>
+        <v>-</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="18">
+        <v>43411</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="19">
+        <v>43441</v>
+      </c>
+      <c r="E27" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>43423</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="19">
+        <v>43437</v>
+      </c>
+      <c r="E28" s="14" t="str">
+        <f t="shared" si="4"/>
+        <v>-</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>43423</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="19">
+        <v>43437</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>43423</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="19">
+        <v>43437</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <f>COUNTIF(C$4:C$11,B28)</f>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <f>COUNTIF(C$4:C$11,B33)</f>
         <v>3</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B33" t="str">
         <f>'Instructions and Lists'!$A$2</f>
         <v>James Bell</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <f>COUNTIF(C$4:C$11,B29)</f>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <f>COUNTIF(C$4:C$11,B34)</f>
         <v>2</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B34" t="str">
         <f>'Instructions and Lists'!$A$3</f>
         <v>Samual Hussey</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <f>COUNTIF(C$4:C$11,B30)</f>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <f>COUNTIF(C$4:C$11,B35)</f>
         <v>3</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B35" t="str">
         <f>'Instructions and Lists'!$A$4</f>
         <v>Zachary Schneiderman</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <f>COUNTIF(C$4:C$5,B31)</f>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <f>COUNTIF(C$4:C$5,B36)</f>
         <v>0</v>
       </c>
-      <c r="B31">
+      <c r="B36">
         <f>'Instructions and Lists'!$A$5</f>
         <v>0</v>
       </c>
@@ -1618,7 +2160,7 @@
           <x14:formula1>
             <xm:f>'Instructions and Lists'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 C14:C25</xm:sqref>
+          <xm:sqref>C4:C12 C14:C30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/docs/Action_Item_Software_Defined_Radio.xlsx
+++ b/docs/Action_Item_Software_Defined_Radio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zas18\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD346FF-01CD-4DDA-B310-41D016C79742}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F198E725-ED34-4000-8119-5D3801284D10}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Open Action Items" sheetId="4" r:id="rId1"/>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -120,9 +120,6 @@
     <t>DRI</t>
   </si>
   <si>
-    <t>#D</t>
-  </si>
-  <si>
     <t>Today's Date</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>RF splitter and combiner</t>
   </si>
   <si>
-    <t>It is a doubled wrapped torroid</t>
-  </si>
-  <si>
     <t>Bandpass filters</t>
   </si>
   <si>
@@ -286,6 +280,9 @@
   </si>
   <si>
     <t>This is the selection mechanism for the frequency</t>
+  </si>
+  <si>
+    <t>Completed - It is a doubled wrapped torroid</t>
   </si>
 </sst>
 </file>
@@ -395,15 +392,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -416,9 +410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,9 +419,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -460,9 +448,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1103,7 +1088,7 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B4" sqref="B4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,20 +1098,20 @@
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4">
-        <v>43500</v>
+        <v>43509</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1139,184 +1124,184 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="18">
+      <c r="B4" s="15">
         <v>43493</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="16">
+        <v>43500</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="9" t="s">
+    </row>
+    <row r="5" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>43493</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="16">
+        <v>43502</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>43493</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="16">
+        <v>43509</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>43500</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E7" s="16">
+        <v>43516</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>43493</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="16">
+        <v>43544</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>43493</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="16">
+        <v>43516</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
         <v>43500</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="18">
-        <v>43493</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="C10" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="16">
+        <v>43516</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>43500</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="16">
+        <v>43516</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
+        <v>43500</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="19">
-        <v>43502</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18">
-        <v>43493</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="19">
-        <v>43509</v>
-      </c>
-      <c r="F6" s="20"/>
-    </row>
-    <row r="7" spans="2:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="18">
-        <v>43500</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="E12" s="16">
         <v>43516</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="18">
-        <v>43493</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="19">
-        <v>43544</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
-        <v>43493</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="19">
-        <v>43516</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="18">
-        <v>43500</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="19">
-        <v>43516</v>
-      </c>
-      <c r="F10" s="20" t="s">
+      <c r="F12" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
-        <v>43500</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="19">
-        <v>43516</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
-        <v>43500</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="19">
-        <v>43516</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="13" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
         <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <f>COUNTIF(D$4:D$13,C15)</f>
         <v>4</v>
       </c>
@@ -1326,10 +1311,10 @@
       </c>
       <c r="D15"/>
       <c r="E15"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <f>COUNTIF(D$4:D$13,C16)</f>
         <v>2</v>
       </c>
@@ -1339,10 +1324,10 @@
       </c>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <f>COUNTIF(D$4:D$13,C17)</f>
         <v>3</v>
       </c>
@@ -1500,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,24 +1497,23 @@
     <col min="2" max="2" width="36.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43418</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1539,612 +1523,550 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="31" t="s">
+      <c r="E3" s="27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>43343</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9">
+        <v>43344</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>43343</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11">
-        <v>43344</v>
-      </c>
-      <c r="E4" s="10" t="str">
-        <f t="shared" ref="E4:E5" si="0">IF(ISERROR(DATEDIF($A$2,D4,"d")),"-",DATEDIF($A$2,D4,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="D5" s="6">
+        <v>43353</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>43343</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
-        <v>43353</v>
-      </c>
-      <c r="E5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="F5" s="15" t="s">
+      <c r="C6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43355</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>43343</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43355</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>43343</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9">
+        <v>43355</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>43343</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9">
+        <v>43357</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>43343</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="9">
+        <v>43357</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>43343</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D11" s="9">
+        <v>43357</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>43355</v>
       </c>
-      <c r="E6" s="14" t="str">
-        <f t="shared" ref="E6:E7" si="1">IF(ISERROR(DATEDIF($B$2,D6,"d")),"-",DATEDIF($B$2,D6,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="B12" s="21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>43343</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="C12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="23">
+        <v>43391</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>43355</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="16">
+        <v>43395</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>43355</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="16">
+        <v>43395</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>43376</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9">
+        <v>43401</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>43397</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="16">
+        <v>43405</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>43397</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="11">
-        <v>43355</v>
-      </c>
-      <c r="E7" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>43343</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="11">
-        <v>43355</v>
-      </c>
-      <c r="E8" s="14" t="str">
-        <f>IF(ISERROR(DATEDIF($B$2,D8,"d")),"-",DATEDIF($B$2,D8,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>43343</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="C17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="16">
+        <v>43422</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>43397</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="16">
+        <v>43422</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>43397</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="11">
-        <v>43357</v>
-      </c>
-      <c r="E9" s="14" t="str">
-        <f>IF(ISERROR(DATEDIF($B$2,D9,"d")),"-",DATEDIF($B$2,D9,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>43343</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="D19" s="16">
+        <v>43422</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>43397</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="11">
-        <v>43357</v>
-      </c>
-      <c r="E10" s="14" t="str">
-        <f>IF(ISERROR(DATEDIF($B$2,D10,"d")),"-",DATEDIF($B$2,D10,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>43343</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="11">
-        <v>43357</v>
-      </c>
-      <c r="E11" s="14" t="str">
-        <f>IF(ISERROR(DATEDIF($B$2,D11,"d")),"-",DATEDIF($B$2,D11,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
-        <v>43355</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="C20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="16">
+        <v>43422</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>43397</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="16">
+        <v>43422</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>43397</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="27">
-        <v>43391</v>
-      </c>
-      <c r="E12" s="25" t="str">
-        <f>IF(ISERROR(DATEDIF($B$2,D12,"d")),"-",DATEDIF($B$2,D12,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
-        <v>43355</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="19">
-        <v>43395</v>
-      </c>
-      <c r="E13" s="14" t="str">
-        <f t="shared" ref="E13:E14" si="2">IF(ISERROR(DATEDIF($B$2,D13,"d")),"-",DATEDIF($B$2,D13,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
-        <v>43355</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="19">
-        <v>43395</v>
-      </c>
-      <c r="E14" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>-</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
-        <v>43376</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="D22" s="16">
+        <v>43422</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
+        <v>43423</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D23" s="16">
+        <v>43434</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
+        <v>43423</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="16">
+        <v>43434</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>43423</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="11">
-        <v>43401</v>
-      </c>
-      <c r="E15" s="14" t="str">
-        <f>IF(ISERROR(DATEDIF($B$2,D15,"d")),"-",DATEDIF($B$2,D15,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
-        <v>43397</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="19">
-        <v>43405</v>
-      </c>
-      <c r="E16" s="14" t="str">
-        <f t="shared" ref="E16:E22" si="3">IF(ISERROR(DATEDIF($B$2,D16,"d")),"-",DATEDIF($B$2,D16,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <v>43397</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="19">
-        <v>43422</v>
-      </c>
-      <c r="E17" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
-        <v>43397</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="D25" s="16">
+        <v>43434</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
+        <v>43409</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="19">
-        <v>43422</v>
-      </c>
-      <c r="E18" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
-        <v>43397</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="19">
-        <v>43422</v>
-      </c>
-      <c r="E19" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
-        <v>43397</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="19">
-        <v>43422</v>
-      </c>
-      <c r="E20" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
-        <v>43397</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="D26" s="16">
+        <v>43434</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>43411</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="16">
+        <v>43441</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>43423</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="16">
+        <v>43437</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>43423</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="16">
+        <v>43437</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>43423</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="19">
-        <v>43422</v>
-      </c>
-      <c r="E21" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
-        <v>43397</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="19">
-        <v>43422</v>
-      </c>
-      <c r="E22" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>-</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
-        <v>43423</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="19">
-        <v>43434</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="20" t="s">
+      <c r="D30" s="16">
+        <v>43437</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
-        <v>43423</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="19">
-        <v>43434</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
-        <v>43423</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="19">
-        <v>43434</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
-        <v>43409</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="19">
-        <v>43434</v>
-      </c>
-      <c r="E26" s="14" t="str">
-        <f t="shared" ref="E26:E29" si="4">IF(ISERROR(DATEDIF($B$2,D26,"d")),"-",DATEDIF($B$2,D26,"d"))</f>
-        <v>-</v>
-      </c>
-      <c r="F26" s="20" t="s">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
+        <v>43493</v>
+      </c>
+      <c r="B31" s="25" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
-        <v>43411</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="19">
-        <v>43441</v>
-      </c>
-      <c r="E27" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
-        <v>43423</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="19">
-        <v>43437</v>
-      </c>
-      <c r="E28" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v>-</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
-        <v>43423</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="19">
-        <v>43437</v>
-      </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
-        <v>43423</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="19">
-        <v>43437</v>
-      </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="16">
+        <v>43500</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>43493</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="16">
+        <v>43502</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <f>COUNTIF(C$4:C$11,B33)</f>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="10">
+        <f>COUNTIF(C$4:C$11,B35)</f>
         <v>3</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B35" t="str">
         <f>'Instructions and Lists'!$A$2</f>
         <v>James Bell</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <f>COUNTIF(C$4:C$11,B34)</f>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10">
+        <f>COUNTIF(C$4:C$11,B36)</f>
         <v>2</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B36" t="str">
         <f>'Instructions and Lists'!$A$3</f>
         <v>Samual Hussey</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <f>COUNTIF(C$4:C$11,B35)</f>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <f>COUNTIF(C$4:C$11,B37)</f>
         <v>3</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B37" t="str">
         <f>'Instructions and Lists'!$A$4</f>
         <v>Zachary Schneiderman</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <f>COUNTIF(C$4:C$5,B36)</f>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <f>COUNTIF(C$4:C$5,B38)</f>
         <v>0</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <f>'Instructions and Lists'!$A$5</f>
         <v>0</v>
       </c>
@@ -2160,7 +2082,7 @@
           <x14:formula1>
             <xm:f>'Instructions and Lists'!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C12 C14:C30</xm:sqref>
+          <xm:sqref>C4:C12 C14:C32</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2183,22 +2105,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
